--- a/notebooks/dados.xlsx
+++ b/notebooks/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\CDados\22-2a-cd-p1-grupo_brunosl2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D6D022-346F-4E8F-99DB-BD9161355CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB18BAB8-ADF6-411A-BDD8-76046267053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -4642,12 +4642,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4988,8 +4987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="143" workbookViewId="0">
-      <selection activeCell="F309" sqref="F309"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="111" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5115,7 +5114,7 @@
         <v>28</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5235,7 +5234,7 @@
         <v>19</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5255,7 +5254,7 @@
         <v>28</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5295,7 +5294,7 @@
         <v>27</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5314,7 +5313,7 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>2</v>
       </c>
     </row>
@@ -5334,7 +5333,7 @@
       <c r="E17">
         <v>18</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
@@ -5354,8 +5353,8 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="2">
-        <v>0</v>
+      <c r="F18">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5374,7 +5373,7 @@
       <c r="E19">
         <v>22</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>1</v>
       </c>
     </row>
@@ -5394,7 +5393,7 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
@@ -5414,8 +5413,8 @@
       <c r="E21">
         <v>18</v>
       </c>
-      <c r="F21" s="2">
-        <v>0</v>
+      <c r="F21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5434,7 +5433,7 @@
       <c r="E22">
         <v>20</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>2</v>
       </c>
     </row>
@@ -5454,7 +5453,7 @@
       <c r="E23">
         <v>27</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>2</v>
       </c>
     </row>
@@ -5474,7 +5473,7 @@
       <c r="E24">
         <v>23</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>2</v>
       </c>
     </row>
@@ -5494,7 +5493,7 @@
       <c r="E25">
         <v>23</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>1</v>
       </c>
     </row>
@@ -5514,7 +5513,7 @@
       <c r="E26">
         <v>11</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>1</v>
       </c>
     </row>
@@ -5534,7 +5533,7 @@
       <c r="E27">
         <v>16</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>2</v>
       </c>
     </row>
@@ -5554,7 +5553,7 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <v>2</v>
       </c>
     </row>
@@ -5574,7 +5573,7 @@
       <c r="E29">
         <v>15</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>1</v>
       </c>
     </row>
@@ -5594,7 +5593,7 @@
       <c r="E30">
         <v>21</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>2</v>
       </c>
     </row>
@@ -5614,7 +5613,7 @@
       <c r="E31">
         <v>4</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31">
         <v>1</v>
       </c>
     </row>
@@ -5634,7 +5633,7 @@
       <c r="E32">
         <v>22</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
         <v>1</v>
       </c>
     </row>
@@ -5654,7 +5653,7 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>1</v>
       </c>
     </row>
@@ -5674,7 +5673,7 @@
       <c r="E34">
         <v>8</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <v>2</v>
       </c>
     </row>
@@ -5694,7 +5693,7 @@
       <c r="E35">
         <v>13</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>2</v>
       </c>
     </row>
@@ -5714,7 +5713,7 @@
       <c r="E36">
         <v>14</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
         <v>1</v>
       </c>
     </row>
@@ -5734,7 +5733,7 @@
       <c r="E37">
         <v>15</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <v>1</v>
       </c>
     </row>
@@ -5754,7 +5753,7 @@
       <c r="E38">
         <v>10</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38">
         <v>2</v>
       </c>
     </row>
@@ -5774,7 +5773,7 @@
       <c r="E39">
         <v>21</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
         <v>1</v>
       </c>
     </row>
@@ -5794,7 +5793,7 @@
       <c r="E40">
         <v>10</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <v>1</v>
       </c>
     </row>
@@ -5814,7 +5813,7 @@
       <c r="E41">
         <v>14</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <v>2</v>
       </c>
     </row>
@@ -5834,7 +5833,7 @@
       <c r="E42">
         <v>28</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42">
         <v>2</v>
       </c>
     </row>
@@ -5854,8 +5853,8 @@
       <c r="E43">
         <v>22</v>
       </c>
-      <c r="F43" s="2">
-        <v>0</v>
+      <c r="F43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5874,8 +5873,8 @@
       <c r="E44">
         <v>13</v>
       </c>
-      <c r="F44" s="2">
-        <v>0</v>
+      <c r="F44">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5894,7 +5893,7 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45">
         <v>2</v>
       </c>
     </row>
@@ -5914,7 +5913,7 @@
       <c r="E46">
         <v>20</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46">
         <v>2</v>
       </c>
     </row>
@@ -5934,7 +5933,7 @@
       <c r="E47">
         <v>3</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47">
         <v>1</v>
       </c>
     </row>
@@ -5954,7 +5953,7 @@
       <c r="E48">
         <v>10</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48">
         <v>1</v>
       </c>
     </row>
@@ -5974,7 +5973,7 @@
       <c r="E49">
         <v>28</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49">
         <v>1</v>
       </c>
     </row>
@@ -5994,8 +5993,8 @@
       <c r="E50">
         <v>4</v>
       </c>
-      <c r="F50" s="2">
-        <v>0</v>
+      <c r="F50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -6014,7 +6013,7 @@
       <c r="E51">
         <v>23</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <v>2</v>
       </c>
     </row>
@@ -6034,8 +6033,8 @@
       <c r="E52">
         <v>6</v>
       </c>
-      <c r="F52" s="2">
-        <v>0</v>
+      <c r="F52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -6054,7 +6053,7 @@
       <c r="E53">
         <v>9</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53">
         <v>1</v>
       </c>
     </row>
@@ -6074,8 +6073,8 @@
       <c r="E54">
         <v>27</v>
       </c>
-      <c r="F54" s="2">
-        <v>0</v>
+      <c r="F54">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -6094,8 +6093,8 @@
       <c r="E55">
         <v>15</v>
       </c>
-      <c r="F55" s="2">
-        <v>0</v>
+      <c r="F55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -6114,7 +6113,7 @@
       <c r="E56">
         <v>25</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56">
         <v>1</v>
       </c>
     </row>
@@ -6134,7 +6133,7 @@
       <c r="E57">
         <v>13</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57">
         <v>1</v>
       </c>
     </row>
@@ -6154,8 +6153,8 @@
       <c r="E58">
         <v>23</v>
       </c>
-      <c r="F58" s="2">
-        <v>0</v>
+      <c r="F58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -6174,7 +6173,7 @@
       <c r="E59">
         <v>8</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59">
         <v>1</v>
       </c>
     </row>
@@ -6194,8 +6193,8 @@
       <c r="E60">
         <v>9</v>
       </c>
-      <c r="F60" s="2">
-        <v>0</v>
+      <c r="F60">
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -6214,7 +6213,7 @@
       <c r="E61">
         <v>13</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61">
         <v>1</v>
       </c>
     </row>
@@ -6234,7 +6233,7 @@
       <c r="E62">
         <v>23</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62">
         <v>1</v>
       </c>
     </row>
@@ -6254,7 +6253,7 @@
       <c r="E63">
         <v>13</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63">
         <v>2</v>
       </c>
     </row>
@@ -6274,7 +6273,7 @@
       <c r="E64">
         <v>24</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64">
         <v>1</v>
       </c>
     </row>
@@ -6294,7 +6293,7 @@
       <c r="E65">
         <v>16</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65">
         <v>2</v>
       </c>
     </row>
@@ -6314,8 +6313,8 @@
       <c r="E66">
         <v>18</v>
       </c>
-      <c r="F66" s="2">
-        <v>0</v>
+      <c r="F66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -6334,7 +6333,7 @@
       <c r="E67">
         <v>7</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67">
         <v>1</v>
       </c>
     </row>
@@ -6354,7 +6353,7 @@
       <c r="E68">
         <v>12</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68">
         <v>1</v>
       </c>
     </row>
@@ -6374,7 +6373,7 @@
       <c r="E69">
         <v>12</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69">
         <v>2</v>
       </c>
     </row>
@@ -6394,7 +6393,7 @@
       <c r="E70">
         <v>24</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70">
         <v>2</v>
       </c>
     </row>
@@ -6414,7 +6413,7 @@
       <c r="E71">
         <v>11</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71">
         <v>2</v>
       </c>
     </row>
@@ -6434,7 +6433,7 @@
       <c r="E72">
         <v>17</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72">
         <v>2</v>
       </c>
     </row>
@@ -6454,7 +6453,7 @@
       <c r="E73">
         <v>11</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73">
         <v>2</v>
       </c>
     </row>
@@ -6474,7 +6473,7 @@
       <c r="E74">
         <v>11</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74">
         <v>1</v>
       </c>
     </row>
@@ -6494,7 +6493,7 @@
       <c r="E75">
         <v>26</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75">
         <v>2</v>
       </c>
     </row>
@@ -6514,7 +6513,7 @@
       <c r="E76">
         <v>17</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76">
         <v>1</v>
       </c>
     </row>
@@ -6534,7 +6533,7 @@
       <c r="E77">
         <v>14</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77">
         <v>1</v>
       </c>
     </row>
@@ -6554,8 +6553,8 @@
       <c r="E78">
         <v>13</v>
       </c>
-      <c r="F78" s="2">
-        <v>0</v>
+      <c r="F78">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -6574,7 +6573,7 @@
       <c r="E79">
         <v>6</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79">
         <v>2</v>
       </c>
     </row>
@@ -6594,7 +6593,7 @@
       <c r="E80">
         <v>6</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80">
         <v>1</v>
       </c>
     </row>
@@ -6614,8 +6613,8 @@
       <c r="E81">
         <v>21</v>
       </c>
-      <c r="F81" s="2">
-        <v>0</v>
+      <c r="F81">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -6634,8 +6633,8 @@
       <c r="E82">
         <v>16</v>
       </c>
-      <c r="F82" s="2">
-        <v>0</v>
+      <c r="F82">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -6654,7 +6653,7 @@
       <c r="E83">
         <v>16</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83">
         <v>2</v>
       </c>
     </row>
@@ -6674,8 +6673,8 @@
       <c r="E84">
         <v>20</v>
       </c>
-      <c r="F84" s="2">
-        <v>0</v>
+      <c r="F84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -6694,7 +6693,7 @@
       <c r="E85">
         <v>28</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85">
         <v>2</v>
       </c>
     </row>
@@ -6714,7 +6713,7 @@
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86">
         <v>2</v>
       </c>
     </row>
@@ -6734,7 +6733,7 @@
       <c r="E87">
         <v>4</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87">
         <v>2</v>
       </c>
     </row>
@@ -6754,7 +6753,7 @@
       <c r="E88">
         <v>22</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88">
         <v>1</v>
       </c>
     </row>
@@ -6774,8 +6773,8 @@
       <c r="E89">
         <v>15</v>
       </c>
-      <c r="F89" s="2">
-        <v>0</v>
+      <c r="F89">
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6794,8 +6793,8 @@
       <c r="E90">
         <v>14</v>
       </c>
-      <c r="F90" s="2">
-        <v>0</v>
+      <c r="F90">
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -6814,8 +6813,8 @@
       <c r="E91">
         <v>17</v>
       </c>
-      <c r="F91" s="2">
-        <v>0</v>
+      <c r="F91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -6834,7 +6833,7 @@
       <c r="E92">
         <v>26</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92">
         <v>1</v>
       </c>
     </row>
@@ -6854,8 +6853,8 @@
       <c r="E93">
         <v>26</v>
       </c>
-      <c r="F93" s="2">
-        <v>0</v>
+      <c r="F93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6874,8 +6873,8 @@
       <c r="E94">
         <v>10</v>
       </c>
-      <c r="F94" s="2">
-        <v>0</v>
+      <c r="F94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -6894,8 +6893,8 @@
       <c r="E95">
         <v>5</v>
       </c>
-      <c r="F95" s="2">
-        <v>0</v>
+      <c r="F95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -6914,8 +6913,8 @@
       <c r="E96">
         <v>18</v>
       </c>
-      <c r="F96" s="2">
-        <v>0</v>
+      <c r="F96">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -6934,8 +6933,8 @@
       <c r="E97">
         <v>15</v>
       </c>
-      <c r="F97" s="2">
-        <v>0</v>
+      <c r="F97">
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -6954,7 +6953,7 @@
       <c r="E98">
         <v>21</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98">
         <v>1</v>
       </c>
     </row>
@@ -6974,8 +6973,8 @@
       <c r="E99">
         <v>24</v>
       </c>
-      <c r="F99" s="2">
-        <v>0</v>
+      <c r="F99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -6994,7 +6993,7 @@
       <c r="E100">
         <v>19</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100">
         <v>2</v>
       </c>
     </row>
@@ -7014,7 +7013,7 @@
       <c r="E101">
         <v>8</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101">
         <v>1</v>
       </c>
     </row>
@@ -7034,7 +7033,7 @@
       <c r="E102">
         <v>23</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102">
         <v>2</v>
       </c>
     </row>
@@ -7054,8 +7053,8 @@
       <c r="E103">
         <v>14</v>
       </c>
-      <c r="F103" s="2">
-        <v>0</v>
+      <c r="F103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -7074,7 +7073,7 @@
       <c r="E104">
         <v>9</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104">
         <v>1</v>
       </c>
     </row>
@@ -7094,8 +7093,8 @@
       <c r="E105">
         <v>20</v>
       </c>
-      <c r="F105" s="2">
-        <v>0</v>
+      <c r="F105">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -7114,8 +7113,8 @@
       <c r="E106">
         <v>19</v>
       </c>
-      <c r="F106" s="2">
-        <v>0</v>
+      <c r="F106">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -7134,8 +7133,8 @@
       <c r="E107">
         <v>4</v>
       </c>
-      <c r="F107" s="2">
-        <v>0</v>
+      <c r="F107">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -7154,8 +7153,8 @@
       <c r="E108">
         <v>11</v>
       </c>
-      <c r="F108" s="2">
-        <v>0</v>
+      <c r="F108">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -7174,7 +7173,7 @@
       <c r="E109">
         <v>2</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109">
         <v>2</v>
       </c>
     </row>
@@ -7194,7 +7193,7 @@
       <c r="E110">
         <v>19</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110">
         <v>2</v>
       </c>
     </row>
@@ -7214,8 +7213,8 @@
       <c r="E111">
         <v>11</v>
       </c>
-      <c r="F111" s="2">
-        <v>0</v>
+      <c r="F111">
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -7234,7 +7233,7 @@
       <c r="E112">
         <v>21</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112">
         <v>2</v>
       </c>
     </row>
@@ -7254,8 +7253,8 @@
       <c r="E113">
         <v>1</v>
       </c>
-      <c r="F113" s="2">
-        <v>0</v>
+      <c r="F113">
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -7274,7 +7273,7 @@
       <c r="E114">
         <v>13</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114">
         <v>1</v>
       </c>
     </row>
@@ -7294,7 +7293,7 @@
       <c r="E115">
         <v>19</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115">
         <v>1</v>
       </c>
     </row>
@@ -7314,7 +7313,7 @@
       <c r="E116">
         <v>12</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116">
         <v>2</v>
       </c>
     </row>
@@ -7334,7 +7333,7 @@
       <c r="E117">
         <v>9</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117">
         <v>2</v>
       </c>
     </row>
@@ -7354,7 +7353,7 @@
       <c r="E118">
         <v>5</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118">
         <v>1</v>
       </c>
     </row>
@@ -7374,7 +7373,7 @@
       <c r="E119">
         <v>10</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119">
         <v>2</v>
       </c>
     </row>
@@ -7394,7 +7393,7 @@
       <c r="E120">
         <v>28</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120">
         <v>2</v>
       </c>
     </row>
@@ -7414,7 +7413,7 @@
       <c r="E121">
         <v>12</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121">
         <v>2</v>
       </c>
     </row>
@@ -7434,7 +7433,7 @@
       <c r="E122">
         <v>24</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122">
         <v>2</v>
       </c>
     </row>
@@ -7454,7 +7453,7 @@
       <c r="E123">
         <v>8</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123">
         <v>1</v>
       </c>
     </row>
@@ -7474,7 +7473,7 @@
       <c r="E124">
         <v>14</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124">
         <v>1</v>
       </c>
     </row>
@@ -7494,7 +7493,7 @@
       <c r="E125">
         <v>26</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125">
         <v>1</v>
       </c>
     </row>
@@ -7514,7 +7513,7 @@
       <c r="E126">
         <v>17</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126">
         <v>1</v>
       </c>
     </row>
@@ -7534,8 +7533,8 @@
       <c r="E127">
         <v>9</v>
       </c>
-      <c r="F127" s="2">
-        <v>0</v>
+      <c r="F127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -7554,7 +7553,7 @@
       <c r="E128">
         <v>19</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128">
         <v>1</v>
       </c>
     </row>
@@ -7574,7 +7573,7 @@
       <c r="E129">
         <v>1</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129">
         <v>1</v>
       </c>
     </row>
@@ -7594,7 +7593,7 @@
       <c r="E130">
         <v>19</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130">
         <v>1</v>
       </c>
     </row>
@@ -7614,8 +7613,8 @@
       <c r="E131">
         <v>19</v>
       </c>
-      <c r="F131" s="2">
-        <v>0</v>
+      <c r="F131">
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -7634,7 +7633,7 @@
       <c r="E132">
         <v>3</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132">
         <v>2</v>
       </c>
     </row>
@@ -7654,7 +7653,7 @@
       <c r="E133">
         <v>20</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133">
         <v>1</v>
       </c>
     </row>
@@ -7674,7 +7673,7 @@
       <c r="E134">
         <v>22</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134">
         <v>2</v>
       </c>
     </row>
@@ -7694,8 +7693,8 @@
       <c r="E135">
         <v>16</v>
       </c>
-      <c r="F135" s="2">
-        <v>0</v>
+      <c r="F135">
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -7714,7 +7713,7 @@
       <c r="E136">
         <v>25</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136">
         <v>2</v>
       </c>
     </row>
@@ -7734,7 +7733,7 @@
       <c r="E137">
         <v>8</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137">
         <v>1</v>
       </c>
     </row>
@@ -7754,8 +7753,8 @@
       <c r="E138">
         <v>28</v>
       </c>
-      <c r="F138" s="2">
-        <v>0</v>
+      <c r="F138">
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -7774,7 +7773,7 @@
       <c r="E139">
         <v>13</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139">
         <v>2</v>
       </c>
     </row>
@@ -7794,7 +7793,7 @@
       <c r="E140">
         <v>26</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140">
         <v>1</v>
       </c>
     </row>
@@ -7814,8 +7813,8 @@
       <c r="E141">
         <v>16</v>
       </c>
-      <c r="F141" s="2">
-        <v>0</v>
+      <c r="F141">
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -7834,8 +7833,8 @@
       <c r="E142">
         <v>7</v>
       </c>
-      <c r="F142" s="2">
-        <v>0</v>
+      <c r="F142">
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -7854,7 +7853,7 @@
       <c r="E143">
         <v>18</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143">
         <v>1</v>
       </c>
     </row>
@@ -7874,7 +7873,7 @@
       <c r="E144">
         <v>19</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144">
         <v>2</v>
       </c>
     </row>
@@ -7894,7 +7893,7 @@
       <c r="E145">
         <v>20</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145">
         <v>1</v>
       </c>
     </row>
@@ -7914,7 +7913,7 @@
       <c r="E146">
         <v>5</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146">
         <v>2</v>
       </c>
     </row>
@@ -7934,7 +7933,7 @@
       <c r="E147">
         <v>5</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147">
         <v>1</v>
       </c>
     </row>
@@ -7954,8 +7953,8 @@
       <c r="E148">
         <v>13</v>
       </c>
-      <c r="F148" s="2">
-        <v>0</v>
+      <c r="F148">
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -7974,7 +7973,7 @@
       <c r="E149">
         <v>3</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149">
         <v>1</v>
       </c>
     </row>
@@ -7994,8 +7993,8 @@
       <c r="E150">
         <v>13</v>
       </c>
-      <c r="F150" s="2">
-        <v>0</v>
+      <c r="F150">
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -8014,8 +8013,8 @@
       <c r="E151">
         <v>23</v>
       </c>
-      <c r="F151" s="2">
-        <v>0</v>
+      <c r="F151">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -8034,7 +8033,7 @@
       <c r="E152">
         <v>18</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152">
         <v>2</v>
       </c>
     </row>
@@ -8054,7 +8053,7 @@
       <c r="E153">
         <v>10</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153">
         <v>1</v>
       </c>
     </row>
@@ -8074,7 +8073,7 @@
       <c r="E154">
         <v>28</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154">
         <v>2</v>
       </c>
     </row>
@@ -8094,7 +8093,7 @@
       <c r="E155">
         <v>8</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155">
         <v>2</v>
       </c>
     </row>
@@ -8114,7 +8113,7 @@
       <c r="E156">
         <v>13</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156">
         <v>2</v>
       </c>
     </row>
@@ -8134,8 +8133,8 @@
       <c r="E157">
         <v>15</v>
       </c>
-      <c r="F157" s="2">
-        <v>0</v>
+      <c r="F157">
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -8154,7 +8153,7 @@
       <c r="E158">
         <v>27</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158">
         <v>2</v>
       </c>
     </row>
@@ -8174,7 +8173,7 @@
       <c r="E159">
         <v>16</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159">
         <v>2</v>
       </c>
     </row>
@@ -8194,7 +8193,7 @@
       <c r="E160">
         <v>15</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160">
         <v>1</v>
       </c>
     </row>
@@ -8214,8 +8213,8 @@
       <c r="E161">
         <v>21</v>
       </c>
-      <c r="F161" s="2">
-        <v>0</v>
+      <c r="F161">
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -8234,7 +8233,7 @@
       <c r="E162">
         <v>28</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162">
         <v>2</v>
       </c>
     </row>
@@ -8254,7 +8253,7 @@
       <c r="E163">
         <v>12</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163">
         <v>2</v>
       </c>
     </row>
@@ -8274,7 +8273,7 @@
       <c r="E164">
         <v>1</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164">
         <v>1</v>
       </c>
     </row>
@@ -8294,7 +8293,7 @@
       <c r="E165">
         <v>23</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165">
         <v>2</v>
       </c>
     </row>
@@ -8314,7 +8313,7 @@
       <c r="E166">
         <v>25</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F166">
         <v>2</v>
       </c>
     </row>
@@ -8334,7 +8333,7 @@
       <c r="E167">
         <v>6</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F167">
         <v>2</v>
       </c>
     </row>
@@ -8354,7 +8353,7 @@
       <c r="E168">
         <v>17</v>
       </c>
-      <c r="F168" s="2">
+      <c r="F168">
         <v>1</v>
       </c>
     </row>
@@ -8374,7 +8373,7 @@
       <c r="E169">
         <v>18</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169">
         <v>2</v>
       </c>
     </row>
@@ -8394,7 +8393,7 @@
       <c r="E170">
         <v>21</v>
       </c>
-      <c r="F170" s="2">
+      <c r="F170">
         <v>1</v>
       </c>
     </row>
@@ -8414,7 +8413,7 @@
       <c r="E171">
         <v>18</v>
       </c>
-      <c r="F171" s="2">
+      <c r="F171">
         <v>2</v>
       </c>
     </row>
@@ -8434,7 +8433,7 @@
       <c r="E172">
         <v>3</v>
       </c>
-      <c r="F172" s="2">
+      <c r="F172">
         <v>2</v>
       </c>
     </row>
@@ -8454,7 +8453,7 @@
       <c r="E173">
         <v>9</v>
       </c>
-      <c r="F173" s="2">
+      <c r="F173">
         <v>2</v>
       </c>
     </row>
@@ -8474,7 +8473,7 @@
       <c r="E174">
         <v>9</v>
       </c>
-      <c r="F174" s="2">
+      <c r="F174">
         <v>2</v>
       </c>
     </row>
@@ -8494,7 +8493,7 @@
       <c r="E175">
         <v>10</v>
       </c>
-      <c r="F175" s="2">
+      <c r="F175">
         <v>1</v>
       </c>
     </row>
@@ -8514,7 +8513,7 @@
       <c r="E176">
         <v>11</v>
       </c>
-      <c r="F176" s="2">
+      <c r="F176">
         <v>2</v>
       </c>
     </row>
@@ -8534,7 +8533,7 @@
       <c r="E177">
         <v>12</v>
       </c>
-      <c r="F177" s="2">
+      <c r="F177">
         <v>2</v>
       </c>
     </row>
@@ -8554,7 +8553,7 @@
       <c r="E178">
         <v>19</v>
       </c>
-      <c r="F178" s="2">
+      <c r="F178">
         <v>2</v>
       </c>
     </row>
@@ -8574,7 +8573,7 @@
       <c r="E179">
         <v>11</v>
       </c>
-      <c r="F179" s="2">
+      <c r="F179">
         <v>2</v>
       </c>
     </row>
@@ -8594,8 +8593,8 @@
       <c r="E180">
         <v>3</v>
       </c>
-      <c r="F180" s="2">
-        <v>0</v>
+      <c r="F180">
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -8614,7 +8613,7 @@
       <c r="E181">
         <v>9</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F181">
         <v>1</v>
       </c>
     </row>
@@ -8634,7 +8633,7 @@
       <c r="E182">
         <v>20</v>
       </c>
-      <c r="F182" s="2">
+      <c r="F182">
         <v>1</v>
       </c>
     </row>
@@ -8654,7 +8653,7 @@
       <c r="E183">
         <v>8</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183">
         <v>2</v>
       </c>
     </row>
@@ -8674,7 +8673,7 @@
       <c r="E184">
         <v>20</v>
       </c>
-      <c r="F184" s="2">
+      <c r="F184">
         <v>1</v>
       </c>
     </row>
@@ -8694,7 +8693,7 @@
       <c r="E185">
         <v>15</v>
       </c>
-      <c r="F185" s="2">
+      <c r="F185">
         <v>1</v>
       </c>
     </row>
@@ -8714,7 +8713,7 @@
       <c r="E186">
         <v>25</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F186">
         <v>2</v>
       </c>
     </row>
@@ -8734,7 +8733,7 @@
       <c r="E187">
         <v>10</v>
       </c>
-      <c r="F187" s="2">
+      <c r="F187">
         <v>2</v>
       </c>
     </row>
@@ -8754,7 +8753,7 @@
       <c r="E188">
         <v>14</v>
       </c>
-      <c r="F188" s="2">
+      <c r="F188">
         <v>2</v>
       </c>
     </row>
@@ -8774,7 +8773,7 @@
       <c r="E189">
         <v>12</v>
       </c>
-      <c r="F189" s="2">
+      <c r="F189">
         <v>1</v>
       </c>
     </row>
@@ -8794,7 +8793,7 @@
       <c r="E190">
         <v>12</v>
       </c>
-      <c r="F190" s="2">
+      <c r="F190">
         <v>2</v>
       </c>
     </row>
@@ -8814,7 +8813,7 @@
       <c r="E191">
         <v>18</v>
       </c>
-      <c r="F191" s="2">
+      <c r="F191">
         <v>2</v>
       </c>
     </row>
@@ -8834,7 +8833,7 @@
       <c r="E192">
         <v>9</v>
       </c>
-      <c r="F192" s="2">
+      <c r="F192">
         <v>1</v>
       </c>
     </row>
@@ -8854,7 +8853,7 @@
       <c r="E193">
         <v>23</v>
       </c>
-      <c r="F193" s="2">
+      <c r="F193">
         <v>2</v>
       </c>
     </row>
@@ -8874,7 +8873,7 @@
       <c r="E194">
         <v>16</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F194">
         <v>2</v>
       </c>
     </row>
@@ -8894,8 +8893,8 @@
       <c r="E195">
         <v>26</v>
       </c>
-      <c r="F195" s="2">
-        <v>0</v>
+      <c r="F195">
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -8914,8 +8913,8 @@
       <c r="E196">
         <v>26</v>
       </c>
-      <c r="F196" s="2">
-        <v>0</v>
+      <c r="F196">
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -8934,7 +8933,7 @@
       <c r="E197">
         <v>6</v>
       </c>
-      <c r="F197" s="2">
+      <c r="F197">
         <v>2</v>
       </c>
     </row>
@@ -8954,8 +8953,8 @@
       <c r="E198">
         <v>16</v>
       </c>
-      <c r="F198" s="2">
-        <v>0</v>
+      <c r="F198">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -8974,8 +8973,8 @@
       <c r="E199">
         <v>1</v>
       </c>
-      <c r="F199" s="2">
-        <v>0</v>
+      <c r="F199">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -8994,8 +8993,8 @@
       <c r="E200">
         <v>16</v>
       </c>
-      <c r="F200" s="2">
-        <v>0</v>
+      <c r="F200">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -9014,7 +9013,7 @@
       <c r="E201">
         <v>10</v>
       </c>
-      <c r="F201" s="2">
+      <c r="F201">
         <v>1</v>
       </c>
     </row>
@@ -9034,8 +9033,8 @@
       <c r="E202">
         <v>5</v>
       </c>
-      <c r="F202" s="2">
-        <v>0</v>
+      <c r="F202">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -9054,8 +9053,8 @@
       <c r="E203">
         <v>16</v>
       </c>
-      <c r="F203" s="2">
-        <v>0</v>
+      <c r="F203">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -9074,8 +9073,8 @@
       <c r="E204">
         <v>11</v>
       </c>
-      <c r="F204" s="2">
-        <v>0</v>
+      <c r="F204">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -9094,7 +9093,7 @@
       <c r="E205">
         <v>20</v>
       </c>
-      <c r="F205" s="2">
+      <c r="F205">
         <v>2</v>
       </c>
     </row>
@@ -9114,7 +9113,7 @@
       <c r="E206">
         <v>21</v>
       </c>
-      <c r="F206" s="2">
+      <c r="F206">
         <v>2</v>
       </c>
     </row>
@@ -9134,7 +9133,7 @@
       <c r="E207">
         <v>12</v>
       </c>
-      <c r="F207" s="2">
+      <c r="F207">
         <v>2</v>
       </c>
     </row>
@@ -9154,7 +9153,7 @@
       <c r="E208">
         <v>28</v>
       </c>
-      <c r="F208" s="2">
+      <c r="F208">
         <v>1</v>
       </c>
     </row>
@@ -9174,8 +9173,8 @@
       <c r="E209">
         <v>24</v>
       </c>
-      <c r="F209" s="2">
-        <v>0</v>
+      <c r="F209">
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -9194,7 +9193,7 @@
       <c r="E210">
         <v>7</v>
       </c>
-      <c r="F210" s="2">
+      <c r="F210">
         <v>1</v>
       </c>
     </row>
@@ -9214,8 +9213,8 @@
       <c r="E211">
         <v>11</v>
       </c>
-      <c r="F211" s="2">
-        <v>0</v>
+      <c r="F211">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -9234,7 +9233,7 @@
       <c r="E212">
         <v>16</v>
       </c>
-      <c r="F212" s="2">
+      <c r="F212">
         <v>2</v>
       </c>
     </row>
@@ -9254,7 +9253,7 @@
       <c r="E213">
         <v>17</v>
       </c>
-      <c r="F213" s="2">
+      <c r="F213">
         <v>2</v>
       </c>
     </row>
@@ -9274,8 +9273,8 @@
       <c r="E214">
         <v>6</v>
       </c>
-      <c r="F214" s="2">
-        <v>0</v>
+      <c r="F214">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -9294,8 +9293,8 @@
       <c r="E215">
         <v>23</v>
       </c>
-      <c r="F215" s="2">
-        <v>0</v>
+      <c r="F215">
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -9314,7 +9313,7 @@
       <c r="E216">
         <v>13</v>
       </c>
-      <c r="F216" s="2">
+      <c r="F216">
         <v>2</v>
       </c>
     </row>
@@ -9334,8 +9333,8 @@
       <c r="E217">
         <v>24</v>
       </c>
-      <c r="F217" s="2">
-        <v>0</v>
+      <c r="F217">
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -9354,7 +9353,7 @@
       <c r="E218">
         <v>4</v>
       </c>
-      <c r="F218" s="2">
+      <c r="F218">
         <v>2</v>
       </c>
     </row>
@@ -9374,7 +9373,7 @@
       <c r="E219">
         <v>23</v>
       </c>
-      <c r="F219" s="2">
+      <c r="F219">
         <v>1</v>
       </c>
     </row>
@@ -9394,8 +9393,8 @@
       <c r="E220">
         <v>1</v>
       </c>
-      <c r="F220" s="2">
-        <v>0</v>
+      <c r="F220">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -9414,7 +9413,7 @@
       <c r="E221">
         <v>23</v>
       </c>
-      <c r="F221" s="2">
+      <c r="F221">
         <v>2</v>
       </c>
     </row>
@@ -9434,8 +9433,8 @@
       <c r="E222">
         <v>25</v>
       </c>
-      <c r="F222" s="2">
-        <v>0</v>
+      <c r="F222">
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -9454,8 +9453,8 @@
       <c r="E223">
         <v>3</v>
       </c>
-      <c r="F223" s="2">
-        <v>0</v>
+      <c r="F223">
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -9474,7 +9473,7 @@
       <c r="E224">
         <v>13</v>
       </c>
-      <c r="F224" s="2">
+      <c r="F224">
         <v>2</v>
       </c>
     </row>
@@ -9494,8 +9493,8 @@
       <c r="E225">
         <v>11</v>
       </c>
-      <c r="F225" s="2">
-        <v>0</v>
+      <c r="F225">
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -9514,7 +9513,7 @@
       <c r="E226">
         <v>12</v>
       </c>
-      <c r="F226" s="2">
+      <c r="F226">
         <v>2</v>
       </c>
     </row>
@@ -9534,7 +9533,7 @@
       <c r="E227">
         <v>17</v>
       </c>
-      <c r="F227" s="2">
+      <c r="F227">
         <v>2</v>
       </c>
     </row>
@@ -9554,7 +9553,7 @@
       <c r="E228">
         <v>26</v>
       </c>
-      <c r="F228" s="2">
+      <c r="F228">
         <v>2</v>
       </c>
     </row>
@@ -9574,7 +9573,7 @@
       <c r="E229">
         <v>9</v>
       </c>
-      <c r="F229" s="2">
+      <c r="F229">
         <v>2</v>
       </c>
     </row>
@@ -9594,7 +9593,7 @@
       <c r="E230">
         <v>22</v>
       </c>
-      <c r="F230" s="2">
+      <c r="F230">
         <v>2</v>
       </c>
     </row>
@@ -9614,7 +9613,7 @@
       <c r="E231">
         <v>26</v>
       </c>
-      <c r="F231" s="2">
+      <c r="F231">
         <v>1</v>
       </c>
     </row>
@@ -9634,7 +9633,7 @@
       <c r="E232">
         <v>27</v>
       </c>
-      <c r="F232" s="2">
+      <c r="F232">
         <v>1</v>
       </c>
     </row>
@@ -9654,8 +9653,8 @@
       <c r="E233">
         <v>1</v>
       </c>
-      <c r="F233" s="2">
-        <v>0</v>
+      <c r="F233">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -9674,8 +9673,8 @@
       <c r="E234">
         <v>8</v>
       </c>
-      <c r="F234" s="2">
-        <v>0</v>
+      <c r="F234">
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -9694,7 +9693,7 @@
       <c r="E235">
         <v>3</v>
       </c>
-      <c r="F235" s="2">
+      <c r="F235">
         <v>1</v>
       </c>
     </row>
@@ -9714,8 +9713,8 @@
       <c r="E236">
         <v>19</v>
       </c>
-      <c r="F236" s="2">
-        <v>0</v>
+      <c r="F236">
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -9734,7 +9733,7 @@
       <c r="E237">
         <v>19</v>
       </c>
-      <c r="F237" s="2">
+      <c r="F237">
         <v>1</v>
       </c>
     </row>
@@ -9754,8 +9753,8 @@
       <c r="E238">
         <v>5</v>
       </c>
-      <c r="F238" s="2">
-        <v>0</v>
+      <c r="F238">
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -9774,7 +9773,7 @@
       <c r="E239">
         <v>17</v>
       </c>
-      <c r="F239" s="2">
+      <c r="F239">
         <v>2</v>
       </c>
     </row>
@@ -9794,7 +9793,7 @@
       <c r="E240">
         <v>27</v>
       </c>
-      <c r="F240" s="2">
+      <c r="F240">
         <v>1</v>
       </c>
     </row>
@@ -9814,7 +9813,7 @@
       <c r="E241">
         <v>8</v>
       </c>
-      <c r="F241" s="2">
+      <c r="F241">
         <v>1</v>
       </c>
     </row>
@@ -9834,7 +9833,7 @@
       <c r="E242">
         <v>9</v>
       </c>
-      <c r="F242" s="2">
+      <c r="F242">
         <v>2</v>
       </c>
     </row>
@@ -9854,7 +9853,7 @@
       <c r="E243">
         <v>1</v>
       </c>
-      <c r="F243" s="2">
+      <c r="F243">
         <v>2</v>
       </c>
     </row>
@@ -9874,7 +9873,7 @@
       <c r="E244">
         <v>17</v>
       </c>
-      <c r="F244" s="2">
+      <c r="F244">
         <v>2</v>
       </c>
     </row>
@@ -9894,7 +9893,7 @@
       <c r="E245">
         <v>7</v>
       </c>
-      <c r="F245" s="2">
+      <c r="F245">
         <v>2</v>
       </c>
     </row>
@@ -9914,7 +9913,7 @@
       <c r="E246">
         <v>1</v>
       </c>
-      <c r="F246" s="2">
+      <c r="F246">
         <v>1</v>
       </c>
     </row>
@@ -9934,7 +9933,7 @@
       <c r="E247">
         <v>25</v>
       </c>
-      <c r="F247" s="2">
+      <c r="F247">
         <v>2</v>
       </c>
     </row>
@@ -9954,7 +9953,7 @@
       <c r="E248">
         <v>27</v>
       </c>
-      <c r="F248" s="2">
+      <c r="F248">
         <v>2</v>
       </c>
     </row>
@@ -9974,8 +9973,8 @@
       <c r="E249">
         <v>20</v>
       </c>
-      <c r="F249" s="2">
-        <v>0</v>
+      <c r="F249">
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -9994,7 +9993,7 @@
       <c r="E250">
         <v>8</v>
       </c>
-      <c r="F250" s="2">
+      <c r="F250">
         <v>1</v>
       </c>
     </row>
@@ -10014,7 +10013,7 @@
       <c r="E251">
         <v>17</v>
       </c>
-      <c r="F251" s="2">
+      <c r="F251">
         <v>2</v>
       </c>
     </row>
@@ -10034,7 +10033,7 @@
       <c r="E252">
         <v>7</v>
       </c>
-      <c r="F252" s="2">
+      <c r="F252">
         <v>1</v>
       </c>
     </row>
@@ -10054,7 +10053,7 @@
       <c r="E253">
         <v>21</v>
       </c>
-      <c r="F253" s="2">
+      <c r="F253">
         <v>2</v>
       </c>
     </row>
@@ -10074,8 +10073,8 @@
       <c r="E254">
         <v>13</v>
       </c>
-      <c r="F254" s="2">
-        <v>0</v>
+      <c r="F254">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -10094,8 +10093,8 @@
       <c r="E255">
         <v>1</v>
       </c>
-      <c r="F255" s="2">
-        <v>0</v>
+      <c r="F255">
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -10114,8 +10113,8 @@
       <c r="E256">
         <v>27</v>
       </c>
-      <c r="F256" s="2">
-        <v>0</v>
+      <c r="F256">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -10134,7 +10133,7 @@
       <c r="E257">
         <v>5</v>
       </c>
-      <c r="F257" s="2">
+      <c r="F257">
         <v>1</v>
       </c>
     </row>
@@ -10154,7 +10153,7 @@
       <c r="E258">
         <v>5</v>
       </c>
-      <c r="F258" s="2">
+      <c r="F258">
         <v>2</v>
       </c>
     </row>
@@ -10174,7 +10173,7 @@
       <c r="E259">
         <v>3</v>
       </c>
-      <c r="F259" s="2">
+      <c r="F259">
         <v>2</v>
       </c>
     </row>
@@ -10194,8 +10193,8 @@
       <c r="E260">
         <v>3</v>
       </c>
-      <c r="F260" s="2">
-        <v>0</v>
+      <c r="F260">
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -10214,7 +10213,7 @@
       <c r="E261">
         <v>15</v>
       </c>
-      <c r="F261" s="2">
+      <c r="F261">
         <v>1</v>
       </c>
     </row>
@@ -10234,8 +10233,8 @@
       <c r="E262">
         <v>15</v>
       </c>
-      <c r="F262" s="2">
-        <v>0</v>
+      <c r="F262">
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -10254,7 +10253,7 @@
       <c r="E263">
         <v>26</v>
       </c>
-      <c r="F263" s="2">
+      <c r="F263">
         <v>1</v>
       </c>
     </row>
@@ -10274,8 +10273,8 @@
       <c r="E264">
         <v>9</v>
       </c>
-      <c r="F264" s="2">
-        <v>0</v>
+      <c r="F264">
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -10294,7 +10293,7 @@
       <c r="E265">
         <v>20</v>
       </c>
-      <c r="F265" s="2">
+      <c r="F265">
         <v>1</v>
       </c>
     </row>
@@ -10314,7 +10313,7 @@
       <c r="E266">
         <v>11</v>
       </c>
-      <c r="F266" s="2">
+      <c r="F266">
         <v>1</v>
       </c>
     </row>
@@ -10334,7 +10333,7 @@
       <c r="E267">
         <v>6</v>
       </c>
-      <c r="F267" s="2">
+      <c r="F267">
         <v>2</v>
       </c>
     </row>
@@ -10354,7 +10353,7 @@
       <c r="E268">
         <v>17</v>
       </c>
-      <c r="F268" s="2">
+      <c r="F268">
         <v>2</v>
       </c>
     </row>
@@ -10374,8 +10373,8 @@
       <c r="E269">
         <v>16</v>
       </c>
-      <c r="F269" s="2">
-        <v>0</v>
+      <c r="F269">
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -10394,7 +10393,7 @@
       <c r="E270">
         <v>7</v>
       </c>
-      <c r="F270" s="2">
+      <c r="F270">
         <v>2</v>
       </c>
     </row>
@@ -10414,7 +10413,7 @@
       <c r="E271">
         <v>10</v>
       </c>
-      <c r="F271" s="2">
+      <c r="F271">
         <v>2</v>
       </c>
     </row>
@@ -10434,8 +10433,8 @@
       <c r="E272">
         <v>3</v>
       </c>
-      <c r="F272" s="2">
-        <v>0</v>
+      <c r="F272">
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -10454,7 +10453,7 @@
       <c r="E273">
         <v>14</v>
       </c>
-      <c r="F273" s="2">
+      <c r="F273">
         <v>2</v>
       </c>
     </row>
@@ -10474,7 +10473,7 @@
       <c r="E274">
         <v>13</v>
       </c>
-      <c r="F274" s="2">
+      <c r="F274">
         <v>1</v>
       </c>
     </row>
@@ -10494,7 +10493,7 @@
       <c r="E275">
         <v>24</v>
       </c>
-      <c r="F275" s="2">
+      <c r="F275">
         <v>1</v>
       </c>
     </row>
@@ -10514,8 +10513,8 @@
       <c r="E276">
         <v>17</v>
       </c>
-      <c r="F276" s="2">
-        <v>0</v>
+      <c r="F276">
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -10534,7 +10533,7 @@
       <c r="E277">
         <v>6</v>
       </c>
-      <c r="F277" s="2">
+      <c r="F277">
         <v>1</v>
       </c>
     </row>
@@ -10554,7 +10553,7 @@
       <c r="E278">
         <v>14</v>
       </c>
-      <c r="F278" s="2">
+      <c r="F278">
         <v>2</v>
       </c>
     </row>
@@ -10574,7 +10573,7 @@
       <c r="E279">
         <v>5</v>
       </c>
-      <c r="F279" s="2">
+      <c r="F279">
         <v>2</v>
       </c>
     </row>
@@ -10594,7 +10593,7 @@
       <c r="E280">
         <v>21</v>
       </c>
-      <c r="F280" s="2">
+      <c r="F280">
         <v>2</v>
       </c>
     </row>
@@ -10614,8 +10613,8 @@
       <c r="E281">
         <v>24</v>
       </c>
-      <c r="F281" s="2">
-        <v>0</v>
+      <c r="F281">
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -10634,7 +10633,7 @@
       <c r="E282">
         <v>18</v>
       </c>
-      <c r="F282" s="2">
+      <c r="F282">
         <v>1</v>
       </c>
     </row>
@@ -10654,7 +10653,7 @@
       <c r="E283">
         <v>3</v>
       </c>
-      <c r="F283" s="2">
+      <c r="F283">
         <v>1</v>
       </c>
     </row>
@@ -10674,8 +10673,8 @@
       <c r="E284">
         <v>2</v>
       </c>
-      <c r="F284" s="2">
-        <v>0</v>
+      <c r="F284">
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -10694,7 +10693,7 @@
       <c r="E285">
         <v>18</v>
       </c>
-      <c r="F285" s="2">
+      <c r="F285">
         <v>2</v>
       </c>
     </row>
@@ -10714,7 +10713,7 @@
       <c r="E286">
         <v>20</v>
       </c>
-      <c r="F286" s="2">
+      <c r="F286">
         <v>2</v>
       </c>
     </row>
@@ -10734,7 +10733,7 @@
       <c r="E287">
         <v>19</v>
       </c>
-      <c r="F287" s="2">
+      <c r="F287">
         <v>2</v>
       </c>
     </row>
@@ -10754,7 +10753,7 @@
       <c r="E288">
         <v>26</v>
       </c>
-      <c r="F288" s="2">
+      <c r="F288">
         <v>2</v>
       </c>
     </row>
@@ -10774,7 +10773,7 @@
       <c r="E289">
         <v>27</v>
       </c>
-      <c r="F289" s="2">
+      <c r="F289">
         <v>2</v>
       </c>
     </row>
@@ -10794,7 +10793,7 @@
       <c r="E290">
         <v>28</v>
       </c>
-      <c r="F290" s="2">
+      <c r="F290">
         <v>1</v>
       </c>
     </row>
@@ -10814,8 +10813,8 @@
       <c r="E291">
         <v>4</v>
       </c>
-      <c r="F291" s="2">
-        <v>0</v>
+      <c r="F291">
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -10834,7 +10833,7 @@
       <c r="E292">
         <v>14</v>
       </c>
-      <c r="F292" s="2">
+      <c r="F292">
         <v>2</v>
       </c>
     </row>
@@ -10854,7 +10853,7 @@
       <c r="E293">
         <v>24</v>
       </c>
-      <c r="F293" s="2">
+      <c r="F293">
         <v>1</v>
       </c>
     </row>
@@ -10874,8 +10873,8 @@
       <c r="E294">
         <v>21</v>
       </c>
-      <c r="F294" s="2">
-        <v>0</v>
+      <c r="F294">
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -10894,7 +10893,7 @@
       <c r="E295">
         <v>18</v>
       </c>
-      <c r="F295" s="2">
+      <c r="F295">
         <v>2</v>
       </c>
     </row>
@@ -10914,7 +10913,7 @@
       <c r="E296">
         <v>28</v>
       </c>
-      <c r="F296" s="2">
+      <c r="F296">
         <v>1</v>
       </c>
     </row>
@@ -10934,7 +10933,7 @@
       <c r="E297">
         <v>2</v>
       </c>
-      <c r="F297" s="2">
+      <c r="F297">
         <v>2</v>
       </c>
     </row>
@@ -10954,7 +10953,7 @@
       <c r="E298">
         <v>24</v>
       </c>
-      <c r="F298" s="2">
+      <c r="F298">
         <v>2</v>
       </c>
     </row>
@@ -10974,7 +10973,7 @@
       <c r="E299">
         <v>14</v>
       </c>
-      <c r="F299" s="2">
+      <c r="F299">
         <v>1</v>
       </c>
     </row>
@@ -10994,7 +10993,7 @@
       <c r="E300">
         <v>10</v>
       </c>
-      <c r="F300" s="2">
+      <c r="F300">
         <v>2</v>
       </c>
     </row>
@@ -11014,7 +11013,7 @@
       <c r="E301">
         <v>5</v>
       </c>
-      <c r="F301" s="2">
+      <c r="F301">
         <v>1</v>
       </c>
     </row>
@@ -11034,7 +11033,7 @@
       <c r="E302">
         <v>7</v>
       </c>
-      <c r="F302" s="2">
+      <c r="F302">
         <v>2</v>
       </c>
     </row>
@@ -11054,7 +11053,7 @@
       <c r="E303">
         <v>24</v>
       </c>
-      <c r="F303" s="2">
+      <c r="F303">
         <v>2</v>
       </c>
     </row>
@@ -11074,7 +11073,7 @@
       <c r="E304">
         <v>24</v>
       </c>
-      <c r="F304" s="2">
+      <c r="F304">
         <v>1</v>
       </c>
     </row>
@@ -11088,13 +11087,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="160" workbookViewId="0">
-      <selection activeCell="A207" sqref="A207:F226"/>
+    <sheetView topLeftCell="B1" zoomScale="106" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11394,7 +11393,7 @@
         <v>22</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -11414,7 +11413,7 @@
         <v>27</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -11434,7 +11433,7 @@
         <v>26</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -11454,7 +11453,7 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -11474,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -11494,7 +11493,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -11674,7 +11673,7 @@
         <v>23</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -11694,7 +11693,7 @@
         <v>25</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -11814,7 +11813,7 @@
         <v>16</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -11894,7 +11893,7 @@
         <v>12</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -11994,7 +11993,7 @@
         <v>19</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -12134,7 +12133,7 @@
         <v>2</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -12194,7 +12193,7 @@
         <v>20</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -12274,7 +12273,7 @@
         <v>22</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -12374,7 +12373,7 @@
         <v>6</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -12434,7 +12433,7 @@
         <v>12</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -12454,7 +12453,7 @@
         <v>20</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -12494,7 +12493,7 @@
         <v>10</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -12574,7 +12573,7 @@
         <v>11</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -12614,7 +12613,7 @@
         <v>15</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -12634,7 +12633,7 @@
         <v>27</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -12674,7 +12673,7 @@
         <v>26</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -12814,7 +12813,7 @@
         <v>19</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -12834,7 +12833,7 @@
         <v>14</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -12954,7 +12953,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -12974,7 +12973,7 @@
         <v>15</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -12994,7 +12993,7 @@
         <v>3</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -13034,7 +13033,7 @@
         <v>16</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -13074,7 +13073,7 @@
         <v>11</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -13214,7 +13213,7 @@
         <v>17</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -13254,7 +13253,7 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -13274,7 +13273,7 @@
         <v>7</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -13374,7 +13373,7 @@
         <v>25</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -13434,7 +13433,7 @@
         <v>8</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -13514,7 +13513,7 @@
         <v>18</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -13694,7 +13693,7 @@
         <v>20</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -13974,7 +13973,7 @@
         <v>23</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -13994,7 +13993,7 @@
         <v>22</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -14034,7 +14033,7 @@
         <v>16</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -14054,7 +14053,7 @@
         <v>28</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -14214,7 +14213,7 @@
         <v>9</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -14254,7 +14253,7 @@
         <v>7</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -14294,7 +14293,7 @@
         <v>6</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -14314,7 +14313,7 @@
         <v>4</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -14354,7 +14353,7 @@
         <v>9</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -14514,7 +14513,7 @@
         <v>14</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -14634,7 +14633,7 @@
         <v>4</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -14654,7 +14653,7 @@
         <v>20</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -14714,7 +14713,7 @@
         <v>17</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -14774,7 +14773,7 @@
         <v>23</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -14894,7 +14893,7 @@
         <v>4</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -14934,7 +14933,7 @@
         <v>5</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -14994,7 +14993,7 @@
         <v>16</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -15074,7 +15073,7 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -15094,7 +15093,7 @@
         <v>20</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -15154,7 +15153,7 @@
         <v>4</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -15174,7 +15173,7 @@
         <v>15</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -15194,7 +15193,7 @@
         <v>22</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
